--- a/Calculs/DataBase_PH2_FileB_V1.xlsx
+++ b/Calculs/DataBase_PH2_FileB_V1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3be78f506c0bb2d4/Documents/Citallios/Calculs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{183F20F1-8883-48E2-A6AE-32C242FA84CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{183F20F1-8883-48E2-A6AE-32C242FA84CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A166E0F-3E67-4B46-824B-E1CADEFEEA6D}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="20" windowWidth="19310" windowHeight="20600" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38940" yWindow="1905" windowWidth="28800" windowHeight="15345" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -745,6 +745,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
@@ -1066,12 +1070,12 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A35" sqref="A35:XFD35"/>
+      <selection pane="topRight" activeCell="W22" sqref="W2:W22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1225,15 +1229,15 @@
         <v>12.5312</v>
       </c>
       <c r="W2" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X2" s="2">
         <f>U2*(1-W2)</f>
-        <v>20.627200000000002</v>
+        <v>41.254400000000004</v>
       </c>
       <c r="Y2" s="2">
         <f>U2*W2 + V2</f>
-        <v>33.1584</v>
+        <v>12.5312</v>
       </c>
       <c r="Z2" s="4">
         <v>70.400000000000006</v>
@@ -1246,7 +1250,7 @@
       <c r="AL2" s="2"/>
       <c r="AM2" s="2"/>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1314,15 +1318,15 @@
         <v>18.601000000000003</v>
       </c>
       <c r="W3" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" ref="X3:X20" si="0">U3*(1-W3)</f>
-        <v>30.618500000000001</v>
+        <v>61.237000000000002</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" ref="Y3:Y20" si="1">U3*W3 + V3</f>
-        <v>49.219500000000004</v>
+        <v>18.601000000000003</v>
       </c>
       <c r="Z3" s="4">
         <v>104.50000000000001</v>
@@ -1335,7 +1339,7 @@
       <c r="AL3" s="2"/>
       <c r="AM3" s="2"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1403,15 +1407,15 @@
         <v>26.433</v>
       </c>
       <c r="W4" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="0"/>
-        <v>43.5105</v>
+        <v>87.021000000000001</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="1"/>
-        <v>69.9435</v>
+        <v>26.433</v>
       </c>
       <c r="Z4" s="4">
         <v>148.5</v>
@@ -1424,7 +1428,7 @@
       <c r="AL4" s="2"/>
       <c r="AM4" s="2"/>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1492,15 +1496,15 @@
         <v>12.986880000000001</v>
       </c>
       <c r="W5" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="0"/>
-        <v>21.377280000000003</v>
+        <v>42.754560000000005</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="1"/>
-        <v>34.364160000000005</v>
+        <v>12.986880000000001</v>
       </c>
       <c r="Z5" s="4">
         <v>72.960000000000008</v>
@@ -1508,12 +1512,12 @@
       <c r="AA5" s="4"/>
       <c r="AB5">
         <f t="shared" si="2"/>
-        <v>55.741440000000011</v>
+        <v>55.741440000000004</v>
       </c>
       <c r="AL5" s="2"/>
       <c r="AM5" s="2"/>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1581,15 +1585,15 @@
         <v>33.286000000000001</v>
       </c>
       <c r="W6" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="0"/>
-        <v>82.186500000000009</v>
+        <v>109.58200000000001</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="1"/>
-        <v>60.6815</v>
+        <v>33.286000000000001</v>
       </c>
       <c r="Z6" s="4">
         <v>187.00000000000003</v>
@@ -1601,7 +1605,7 @@
       </c>
       <c r="AL6" s="2"/>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1690,7 +1694,7 @@
       <c r="AL7" s="2"/>
       <c r="AM7" s="2"/>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1778,7 +1782,7 @@
       </c>
       <c r="AL8" s="2"/>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -1867,7 +1871,7 @@
       <c r="AL9" s="2"/>
       <c r="AM9" s="2"/>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -1956,7 +1960,7 @@
       <c r="AL10" s="2"/>
       <c r="AM10" s="2"/>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
@@ -2044,7 +2048,7 @@
       </c>
       <c r="AL11" s="2"/>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2133,7 +2137,7 @@
       <c r="AL12" s="2"/>
       <c r="AM12" s="2"/>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
@@ -2201,15 +2205,15 @@
         <v>12.5312</v>
       </c>
       <c r="W13" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="0"/>
-        <v>20.627200000000002</v>
+        <v>41.254400000000004</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="1"/>
-        <v>33.1584</v>
+        <v>12.5312</v>
       </c>
       <c r="Z13" s="4">
         <v>70.400000000000006</v>
@@ -2222,7 +2226,7 @@
       <c r="AL13" s="2"/>
       <c r="AM13" s="2"/>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2290,15 +2294,15 @@
         <v>33.286000000000001</v>
       </c>
       <c r="W14" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="0"/>
-        <v>54.791000000000004</v>
+        <v>109.58200000000001</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="1"/>
-        <v>88.076999999999998</v>
+        <v>33.286000000000001</v>
       </c>
       <c r="Z14" s="4">
         <v>187.00000000000003</v>
@@ -2311,7 +2315,7 @@
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2379,15 +2383,15 @@
         <v>17.088000000000001</v>
       </c>
       <c r="W15" s="3">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="0"/>
-        <v>42.192</v>
+        <v>56.256</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="1"/>
-        <v>31.152000000000001</v>
+        <v>17.088000000000001</v>
       </c>
       <c r="Z15" s="4">
         <v>96</v>
@@ -2399,7 +2403,7 @@
       </c>
       <c r="AL15" s="2"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2487,7 +2491,7 @@
       </c>
       <c r="AL16" s="2"/>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2575,7 +2579,7 @@
       </c>
       <c r="AL17" s="2"/>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
@@ -2663,7 +2667,7 @@
       </c>
       <c r="AL18" s="2"/>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2751,7 +2755,7 @@
       </c>
       <c r="AL19" s="2"/>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2839,7 +2843,7 @@
       </c>
       <c r="AL20" s="2"/>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2926,7 +2930,7 @@
         <v>58.675199999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>45</v>
       </c>
@@ -3013,7 +3017,7 @@
         <v>134.464</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -3100,7 +3104,7 @@
         <v>58.675199999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>19.558399999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -3274,7 +3278,7 @@
         <v>16.808</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -3361,7 +3365,7 @@
         <v>19.558399999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3448,7 +3452,7 @@
         <v>50.423999999999992</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>46</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>44.006399999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>67.231999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>46</v>
       </c>
@@ -3709,7 +3713,7 @@
         <v>39.116799999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
@@ -3796,7 +3800,7 @@
         <v>50.423999999999992</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>34.227200000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -3970,7 +3974,7 @@
         <v>19.558399999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -4057,7 +4061,7 @@
         <v>21.01</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -4144,7 +4148,7 @@
         <v>126.06</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -4231,7 +4235,7 @@
         <v>63.564800000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>138.666</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4405,7 +4409,7 @@
         <v>53.785600000000002</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -4492,7 +4496,7 @@
         <v>117.65600000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>48.896000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -4647,15 +4651,15 @@
         <v>24.474999999999998</v>
       </c>
       <c r="W41" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X41" s="2">
         <f t="shared" si="3"/>
-        <v>80.574999999999989</v>
+        <v>60.431249999999991</v>
       </c>
       <c r="Y41" s="2">
         <f t="shared" si="4"/>
-        <v>24.474999999999998</v>
+        <v>44.618749999999991</v>
       </c>
       <c r="Z41" s="4">
         <v>137.5</v>
@@ -4666,7 +4670,7 @@
         <v>105.04999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -4734,15 +4738,15 @@
         <v>14.12608</v>
       </c>
       <c r="W42" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X42" s="2">
         <f t="shared" si="3"/>
-        <v>46.504959999999997</v>
+        <v>23.252479999999998</v>
       </c>
       <c r="Y42" s="2">
         <f t="shared" si="4"/>
-        <v>14.12608</v>
+        <v>37.37856</v>
       </c>
       <c r="Z42" s="4">
         <v>79.36</v>
@@ -4753,7 +4757,7 @@
         <v>60.631039999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -4821,15 +4825,15 @@
         <v>33.286000000000001</v>
       </c>
       <c r="W43" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X43" s="2">
         <f t="shared" si="3"/>
-        <v>109.58200000000001</v>
+        <v>54.791000000000004</v>
       </c>
       <c r="Y43" s="2">
         <f t="shared" si="4"/>
-        <v>33.286000000000001</v>
+        <v>88.076999999999998</v>
       </c>
       <c r="Z43" s="4">
         <v>187.00000000000003</v>
@@ -4840,7 +4844,7 @@
         <v>142.86799999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -4908,15 +4912,15 @@
         <v>17.088000000000001</v>
       </c>
       <c r="W44" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X44" s="2">
         <f t="shared" si="3"/>
-        <v>56.256</v>
+        <v>28.128</v>
       </c>
       <c r="Y44" s="2">
         <f t="shared" si="4"/>
-        <v>17.088000000000001</v>
+        <v>45.216000000000001</v>
       </c>
       <c r="Z44" s="4">
         <v>96</v>
@@ -4927,7 +4931,7 @@
         <v>73.343999999999994</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -4995,15 +4999,15 @@
         <v>34.265000000000001</v>
       </c>
       <c r="W45" s="5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X45" s="2">
         <f t="shared" si="3"/>
-        <v>112.80500000000001</v>
+        <v>56.402500000000003</v>
       </c>
       <c r="Y45" s="2">
         <f t="shared" si="4"/>
-        <v>34.265000000000001</v>
+        <v>90.667500000000004</v>
       </c>
       <c r="Z45" s="4">
         <v>192.50000000000003</v>
